--- a/database/industries/darou/dalber/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/dalber/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dalber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6493BDAF-3E3E-40B4-A517-D5B94653EBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF62553-C6F8-463B-9826-33A850F2F172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -666,16 +681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I126"/>
+  <dimension ref="B1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -684,8 +699,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,8 +716,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -708,8 +733,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -718,8 +748,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -730,8 +765,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -742,8 +782,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -752,8 +797,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -774,8 +824,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -784,10 +849,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -796,104 +866,169 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>9174104</v>
+      </c>
+      <c r="F11" s="11">
+        <v>7328640</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3939459</v>
+      </c>
+      <c r="H11" s="11">
+        <v>3881141</v>
+      </c>
+      <c r="I11" s="11">
+        <v>4132967</v>
+      </c>
+      <c r="J11" s="11">
         <v>4982539</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>7316290</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>8388915</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>9695010</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>6796933</v>
+      </c>
+      <c r="F12" s="13">
+        <v>5963631</v>
+      </c>
+      <c r="G12" s="13">
+        <v>5169120</v>
+      </c>
+      <c r="H12" s="13">
+        <v>5018533</v>
+      </c>
+      <c r="I12" s="13">
+        <v>4881770</v>
+      </c>
+      <c r="J12" s="13">
         <v>3546314</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>5747143</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>7845295</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>6933007</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>156314</v>
+      </c>
+      <c r="F13" s="11">
+        <v>165010</v>
+      </c>
+      <c r="G13" s="11">
+        <v>213542</v>
+      </c>
+      <c r="H13" s="11">
+        <v>237644</v>
+      </c>
+      <c r="I13" s="11">
+        <v>186048</v>
+      </c>
+      <c r="J13" s="11">
         <v>214618</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>189963</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>303783</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>249923</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
+        <v>16127351</v>
+      </c>
+      <c r="F14" s="15">
+        <v>13457281</v>
+      </c>
+      <c r="G14" s="15">
+        <v>9322121</v>
+      </c>
+      <c r="H14" s="15">
+        <v>9137318</v>
+      </c>
+      <c r="I14" s="15">
+        <v>9200785</v>
+      </c>
+      <c r="J14" s="15">
         <v>8743471</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
         <v>13253396</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>16537993</v>
       </c>
-      <c r="I14" s="15">
+      <c r="N14" s="15">
         <v>16877940</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -902,104 +1037,169 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
+        <v>69515</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>61164</v>
+      </c>
+      <c r="J16" s="11">
         <v>150040</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="K16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
         <v>148853</v>
       </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>13</v>
+        <v>30404</v>
+      </c>
+      <c r="F17" s="13">
+        <v>-27000</v>
       </c>
       <c r="G17" s="13">
+        <v>15000</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="13">
         <v>1266</v>
       </c>
-      <c r="H17" s="13">
+      <c r="M17" s="13">
         <v>1094</v>
       </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>13</v>
+        <v>15211</v>
+      </c>
+      <c r="F18" s="11">
+        <v>17100</v>
       </c>
       <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>5455</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="11">
         <v>805</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>13901</v>
       </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
+        <v>115130</v>
+      </c>
+      <c r="F19" s="15">
+        <v>-9900</v>
+      </c>
+      <c r="G19" s="15">
+        <v>15000</v>
+      </c>
+      <c r="H19" s="15">
+        <v>5455</v>
+      </c>
+      <c r="I19" s="15">
+        <v>61164</v>
+      </c>
+      <c r="J19" s="15">
         <v>150040</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
         <v>2071</v>
       </c>
-      <c r="H19" s="15">
+      <c r="M19" s="15">
         <v>163848</v>
       </c>
-      <c r="I19" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1008,242 +1208,397 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11">
+      <c r="E21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11">
+        <v>2123325</v>
+      </c>
+      <c r="J21" s="11">
         <v>2140581</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="K21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="11">
         <v>998654</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>1365524</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>2105915</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="13">
+      <c r="E22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="13">
+        <v>749529</v>
+      </c>
+      <c r="J22" s="13">
         <v>403560</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11">
+      <c r="E23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="11">
+        <v>277</v>
+      </c>
+      <c r="J23" s="11">
         <v>126</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11">
+      <c r="K23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="11">
         <v>1725</v>
       </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
         <v>535</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>13</v>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>13</v>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>13</v>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <v>2873131</v>
+      </c>
+      <c r="J27" s="17">
         <v>2544267</v>
       </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
+      <c r="K27" s="17">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
         <v>1000379</v>
       </c>
-      <c r="H27" s="17">
+      <c r="M27" s="17">
         <v>1365524</v>
       </c>
-      <c r="I27" s="17">
+      <c r="N27" s="17">
         <v>2106450</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>13</v>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="17">
+        <v>-21052</v>
+      </c>
+      <c r="J29" s="17">
         <v>45589</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="17">
+      <c r="K29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="17">
         <v>-79815</v>
       </c>
-      <c r="H29" s="17">
+      <c r="M29" s="17">
         <v>79815</v>
       </c>
-      <c r="I29" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
+        <v>16242481</v>
+      </c>
+      <c r="F30" s="15">
+        <v>13447381</v>
+      </c>
+      <c r="G30" s="15">
+        <v>9337121</v>
+      </c>
+      <c r="H30" s="15">
+        <v>9142773</v>
+      </c>
+      <c r="I30" s="15">
+        <v>12114028</v>
+      </c>
+      <c r="J30" s="15">
         <v>11483367</v>
       </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
         <v>14176031</v>
       </c>
-      <c r="H30" s="15">
+      <c r="M30" s="15">
         <v>18147180</v>
       </c>
-      <c r="I30" s="15">
+      <c r="N30" s="15">
         <v>18984390</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1252,8 +1607,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1262,8 +1622,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1272,10 +1637,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1294,8 +1664,23 @@
       <c r="I34" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1304,10 +1689,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1316,104 +1706,169 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
+        <v>653671</v>
+      </c>
+      <c r="F37" s="11">
+        <v>748130</v>
+      </c>
+      <c r="G37" s="11">
+        <v>603695</v>
+      </c>
+      <c r="H37" s="11">
+        <v>438170</v>
+      </c>
+      <c r="I37" s="11">
+        <v>517204</v>
+      </c>
+      <c r="J37" s="11">
         <v>476142</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="11">
+      <c r="K37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="11">
         <v>730831</v>
       </c>
-      <c r="H37" s="11">
+      <c r="M37" s="11">
         <v>911007</v>
       </c>
-      <c r="I37" s="11">
+      <c r="N37" s="11">
         <v>1285321</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
+        <v>1403600</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1133088</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1537085</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1074999</v>
+      </c>
+      <c r="I38" s="13">
+        <v>1404363</v>
+      </c>
+      <c r="J38" s="13">
         <v>1109976</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="K38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="13">
         <v>1346303</v>
       </c>
-      <c r="H38" s="13">
+      <c r="M38" s="13">
         <v>2038854</v>
       </c>
-      <c r="I38" s="13">
+      <c r="N38" s="13">
         <v>2499322</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
+        <v>540348</v>
+      </c>
+      <c r="F39" s="11">
+        <v>406328</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1078442</v>
+      </c>
+      <c r="H39" s="11">
+        <v>1318577</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1991830</v>
+      </c>
+      <c r="J39" s="11">
         <v>2005429</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="11">
+      <c r="K39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="11">
         <v>2518943</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>2872165</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>2708441</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
+        <v>2597619</v>
+      </c>
+      <c r="F40" s="15">
+        <v>2287546</v>
+      </c>
+      <c r="G40" s="15">
+        <v>3219222</v>
+      </c>
+      <c r="H40" s="15">
+        <v>2831746</v>
+      </c>
+      <c r="I40" s="15">
+        <v>3913397</v>
+      </c>
+      <c r="J40" s="15">
         <v>3591547</v>
       </c>
-      <c r="F40" s="15">
-        <v>0</v>
-      </c>
-      <c r="G40" s="15">
+      <c r="K40" s="15">
+        <v>0</v>
+      </c>
+      <c r="L40" s="15">
         <v>4596077</v>
       </c>
-      <c r="H40" s="15">
+      <c r="M40" s="15">
         <v>5822026</v>
       </c>
-      <c r="I40" s="15">
+      <c r="N40" s="15">
         <v>6493084</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1422,104 +1877,169 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
+        <v>2310</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>3693</v>
+      </c>
+      <c r="J42" s="11">
         <v>6268</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0</v>
-      </c>
-      <c r="H42" s="11">
+      <c r="K42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
         <v>10342</v>
       </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>13</v>
+        <v>4247</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0</v>
       </c>
       <c r="G43" s="13">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="13">
+        <v>0</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="13">
         <v>371</v>
       </c>
-      <c r="H43" s="13">
+      <c r="M43" s="13">
         <v>334</v>
       </c>
-      <c r="I43" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>0</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>13</v>
+        <v>111205</v>
+      </c>
+      <c r="F44" s="11">
+        <v>18905</v>
       </c>
       <c r="G44" s="11">
+        <v>2</v>
+      </c>
+      <c r="H44" s="11">
+        <v>31441</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="11">
         <v>59070</v>
       </c>
-      <c r="H44" s="11">
+      <c r="M44" s="11">
         <v>38801</v>
       </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
+        <v>117762</v>
+      </c>
+      <c r="F45" s="15">
+        <v>18905</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1002</v>
+      </c>
+      <c r="H45" s="15">
+        <v>31441</v>
+      </c>
+      <c r="I45" s="15">
+        <v>3693</v>
+      </c>
+      <c r="J45" s="15">
         <v>6268</v>
       </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="15">
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
         <v>59441</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>49477</v>
       </c>
-      <c r="I45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1528,244 +2048,399 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11">
+      <c r="E47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="11">
+        <v>145398</v>
+      </c>
+      <c r="J47" s="11">
         <v>148355</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="11">
+      <c r="K47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="11">
         <v>74308</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M47" s="11">
         <v>108298</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>173937</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D48" s="13"/>
-      <c r="E48" s="13">
+      <c r="E48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="13">
+        <v>63448</v>
+      </c>
+      <c r="J48" s="13">
         <v>44444</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="13">
-        <v>0</v>
-      </c>
-      <c r="H48" s="13">
-        <v>0</v>
-      </c>
-      <c r="I48" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="13">
+        <v>0</v>
+      </c>
+      <c r="M48" s="13">
+        <v>0</v>
+      </c>
+      <c r="N48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11">
+      <c r="E49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="11">
+        <v>2765</v>
+      </c>
+      <c r="J49" s="11">
         <v>530</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="11">
+      <c r="K49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="11">
         <v>17251</v>
       </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
+      <c r="M49" s="11">
+        <v>0</v>
+      </c>
+      <c r="N49" s="11">
         <v>1703</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D50" s="13"/>
-      <c r="E50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>13</v>
+      <c r="E50" s="13">
+        <v>103417</v>
+      </c>
+      <c r="F50" s="13">
+        <v>150081</v>
+      </c>
+      <c r="G50" s="13">
+        <v>122130</v>
+      </c>
+      <c r="H50" s="13">
+        <v>8072</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>13</v>
+      <c r="E51" s="11">
+        <v>11194</v>
+      </c>
+      <c r="F51" s="11">
+        <v>-12244</v>
+      </c>
+      <c r="G51" s="11">
+        <v>10514</v>
+      </c>
+      <c r="H51" s="11">
+        <v>6853</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D52" s="13"/>
-      <c r="E52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>13</v>
+      <c r="E52" s="13">
+        <v>-5945</v>
+      </c>
+      <c r="F52" s="13">
+        <v>18738</v>
+      </c>
+      <c r="G52" s="13">
+        <v>1131</v>
+      </c>
+      <c r="H52" s="13">
+        <v>9745</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17">
+        <v>108666</v>
+      </c>
+      <c r="F53" s="17">
+        <v>156575</v>
+      </c>
+      <c r="G53" s="17">
+        <v>133775</v>
+      </c>
+      <c r="H53" s="17">
+        <v>24670</v>
+      </c>
+      <c r="I53" s="17">
+        <v>211611</v>
+      </c>
+      <c r="J53" s="17">
         <v>193329</v>
       </c>
-      <c r="F53" s="17">
-        <v>0</v>
-      </c>
-      <c r="G53" s="17">
+      <c r="K53" s="17">
+        <v>0</v>
+      </c>
+      <c r="L53" s="17">
         <v>91559</v>
       </c>
-      <c r="H53" s="17">
+      <c r="M53" s="17">
         <v>108298</v>
       </c>
-      <c r="I53" s="17">
+      <c r="N53" s="17">
         <v>175640</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>13</v>
+      <c r="E54" s="15">
+        <v>-122858</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-50084</v>
+      </c>
+      <c r="G54" s="15">
+        <v>-184290</v>
+      </c>
+      <c r="H54" s="15">
+        <v>-34032</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17">
+        <v>-403353</v>
+      </c>
+      <c r="F55" s="17">
+        <v>-6512</v>
+      </c>
+      <c r="G55" s="17">
+        <v>-467584</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="17">
+        <v>-613864</v>
+      </c>
+      <c r="J55" s="17">
         <v>-14463</v>
       </c>
-      <c r="F55" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="17">
+      <c r="K55" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="17">
         <v>-39042</v>
       </c>
-      <c r="H55" s="17">
+      <c r="M55" s="17">
         <v>-140791</v>
       </c>
-      <c r="I55" s="17">
+      <c r="N55" s="17">
         <v>-61781</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
+        <v>2297836</v>
+      </c>
+      <c r="F56" s="15">
+        <v>2406430</v>
+      </c>
+      <c r="G56" s="15">
+        <v>2702125</v>
+      </c>
+      <c r="H56" s="15">
+        <v>2853825</v>
+      </c>
+      <c r="I56" s="15">
+        <v>3514837</v>
+      </c>
+      <c r="J56" s="15">
         <v>3776681</v>
       </c>
-      <c r="F56" s="15">
-        <v>0</v>
-      </c>
-      <c r="G56" s="15">
+      <c r="K56" s="15">
+        <v>0</v>
+      </c>
+      <c r="L56" s="15">
         <v>4708035</v>
       </c>
-      <c r="H56" s="15">
+      <c r="M56" s="15">
         <v>5839010</v>
       </c>
-      <c r="I56" s="15">
+      <c r="N56" s="15">
         <v>6606943</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1774,8 +2449,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1784,8 +2464,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1794,10 +2479,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1816,8 +2506,23 @@
       <c r="I60" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1826,10 +2531,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -1838,82 +2548,132 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
+        <v>71252</v>
+      </c>
+      <c r="F63" s="11">
+        <v>102083</v>
+      </c>
+      <c r="G63" s="11">
+        <v>119343</v>
+      </c>
+      <c r="H63" s="11">
+        <v>112897</v>
+      </c>
+      <c r="I63" s="11">
+        <v>125141</v>
+      </c>
+      <c r="J63" s="11">
         <v>77249</v>
       </c>
-      <c r="F63" s="11">
+      <c r="K63" s="11">
         <v>90440</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>99891</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>108597</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>132576</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
+        <v>206505</v>
+      </c>
+      <c r="F64" s="13">
+        <v>190000</v>
+      </c>
+      <c r="G64" s="13">
+        <v>238430</v>
+      </c>
+      <c r="H64" s="13">
+        <v>214206</v>
+      </c>
+      <c r="I64" s="13">
+        <v>287675</v>
+      </c>
+      <c r="J64" s="13">
         <v>243619</v>
       </c>
-      <c r="F64" s="13">
+      <c r="K64" s="13">
         <v>232218</v>
       </c>
-      <c r="G64" s="13">
+      <c r="L64" s="13">
         <v>234256</v>
       </c>
-      <c r="H64" s="13">
+      <c r="M64" s="13">
         <v>259882</v>
       </c>
-      <c r="I64" s="13">
+      <c r="N64" s="13">
         <v>360496</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>3456811</v>
+      </c>
+      <c r="F65" s="11">
+        <v>2462445</v>
+      </c>
+      <c r="G65" s="11">
+        <v>4574299</v>
+      </c>
+      <c r="H65" s="11">
+        <v>5548539</v>
+      </c>
+      <c r="I65" s="11">
+        <v>10706001</v>
+      </c>
+      <c r="J65" s="11">
         <v>8153240</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>14738244</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>13260177</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>9454660</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>10837102</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -1922,82 +2682,132 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
+        <v>33230</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="11">
+        <v>60379</v>
+      </c>
+      <c r="J67" s="11">
         <v>41776</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="11">
+      <c r="K67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="11">
         <v>69478</v>
       </c>
-      <c r="I67" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N67" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D68" s="13"/>
-      <c r="E68" s="13" t="s">
-        <v>13</v>
+      <c r="E68" s="13">
+        <v>139686</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G68" s="13">
+        <v>23810</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="13">
         <v>293049</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>305302</v>
       </c>
-      <c r="I68" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N68" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>13</v>
+      <c r="E69" s="11">
+        <v>7310828</v>
       </c>
       <c r="F69" s="11">
+        <v>1105556</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="11">
+        <v>5763703</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="11">
         <v>-409470</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>73378882</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>2791238</v>
       </c>
-      <c r="I69" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N69" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -2006,152 +2816,247 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2160,8 +3065,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2170,8 +3080,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2180,10 +3095,15 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2202,8 +3122,23 @@
       <c r="I80" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2212,10 +3147,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -2224,104 +3164,169 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
+        <v>-211216</v>
+      </c>
+      <c r="F83" s="11">
+        <v>-219103</v>
+      </c>
+      <c r="G83" s="11">
+        <v>-204761</v>
+      </c>
+      <c r="H83" s="11">
+        <v>-201397</v>
+      </c>
+      <c r="I83" s="11">
+        <v>-229434</v>
+      </c>
+      <c r="J83" s="11">
         <v>-281975</v>
       </c>
-      <c r="F83" s="11">
+      <c r="K83" s="11">
         <v>-245224</v>
       </c>
-      <c r="G83" s="11">
+      <c r="L83" s="11">
         <v>-428962</v>
       </c>
-      <c r="H83" s="11">
+      <c r="M83" s="11">
         <v>-604302</v>
       </c>
-      <c r="I83" s="11">
+      <c r="N83" s="11">
         <v>-701002</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
+        <v>-545957</v>
+      </c>
+      <c r="F84" s="13">
+        <v>-491092</v>
+      </c>
+      <c r="G84" s="13">
+        <v>-587452</v>
+      </c>
+      <c r="H84" s="13">
+        <v>-560079</v>
+      </c>
+      <c r="I84" s="13">
+        <v>-708347</v>
+      </c>
+      <c r="J84" s="13">
         <v>-615806</v>
       </c>
-      <c r="F84" s="13">
+      <c r="K84" s="13">
         <v>-624404</v>
       </c>
-      <c r="G84" s="13">
+      <c r="L84" s="13">
         <v>-803290</v>
       </c>
-      <c r="H84" s="13">
+      <c r="M84" s="13">
         <v>-1076184</v>
       </c>
-      <c r="I84" s="13">
+      <c r="N84" s="13">
         <v>-1307384</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
+        <v>-263046</v>
+      </c>
+      <c r="F85" s="11">
+        <v>-233661</v>
+      </c>
+      <c r="G85" s="11">
+        <v>-606140</v>
+      </c>
+      <c r="H85" s="11">
+        <v>-774375</v>
+      </c>
+      <c r="I85" s="11">
+        <v>-750527</v>
+      </c>
+      <c r="J85" s="11">
         <v>-671516</v>
       </c>
-      <c r="F85" s="11">
+      <c r="K85" s="11">
         <v>-1920311</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>-1671171</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>-1730417</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>-1591165</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15">
+        <v>-1020219</v>
+      </c>
+      <c r="F86" s="15">
+        <v>-943856</v>
+      </c>
+      <c r="G86" s="15">
+        <v>-1398353</v>
+      </c>
+      <c r="H86" s="15">
+        <v>-1535851</v>
+      </c>
+      <c r="I86" s="15">
+        <v>-1688308</v>
+      </c>
+      <c r="J86" s="15">
         <v>-1569297</v>
       </c>
-      <c r="F86" s="15">
+      <c r="K86" s="15">
         <v>-2789939</v>
       </c>
-      <c r="G86" s="15">
+      <c r="L86" s="15">
         <v>-2903423</v>
       </c>
-      <c r="H86" s="15">
+      <c r="M86" s="15">
         <v>-3410903</v>
       </c>
-      <c r="I86" s="15">
+      <c r="N86" s="15">
         <v>-3599551</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -2330,104 +3335,169 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
+        <v>-1619</v>
+      </c>
+      <c r="F88" s="11">
+        <v>-29</v>
+      </c>
+      <c r="G88" s="11">
+        <v>-100</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
+      </c>
+      <c r="I88" s="11">
+        <v>-2458</v>
+      </c>
+      <c r="J88" s="11">
         <v>-4573</v>
       </c>
-      <c r="F88" s="11">
+      <c r="K88" s="11">
         <v>-301</v>
       </c>
-      <c r="G88" s="11">
-        <v>0</v>
-      </c>
-      <c r="H88" s="11">
+      <c r="L88" s="11">
+        <v>0</v>
+      </c>
+      <c r="M88" s="11">
         <v>-8657</v>
       </c>
-      <c r="I88" s="11">
+      <c r="N88" s="11">
         <v>-600</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>0</v>
+        <v>-2499</v>
       </c>
       <c r="F89" s="13">
-        <v>0</v>
+        <v>-379</v>
       </c>
       <c r="G89" s="13">
+        <v>-1028</v>
+      </c>
+      <c r="H89" s="13">
+        <v>0</v>
+      </c>
+      <c r="I89" s="13">
+        <v>0</v>
+      </c>
+      <c r="J89" s="13">
+        <v>0</v>
+      </c>
+      <c r="K89" s="13">
+        <v>0</v>
+      </c>
+      <c r="L89" s="13">
         <v>-266</v>
       </c>
-      <c r="H89" s="13">
+      <c r="M89" s="13">
         <v>-261</v>
       </c>
-      <c r="I89" s="13">
+      <c r="N89" s="13">
         <v>-27</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>-38962</v>
+      </c>
+      <c r="F90" s="11">
+        <v>-14493</v>
+      </c>
+      <c r="G90" s="11">
+        <v>-4530</v>
+      </c>
+      <c r="H90" s="11">
+        <v>-6798</v>
+      </c>
+      <c r="I90" s="11">
+        <v>-47</v>
+      </c>
+      <c r="J90" s="11">
         <v>-95</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>-105542</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>-39822</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>-26264</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>-2685</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15">
+        <v>-43080</v>
+      </c>
+      <c r="F91" s="15">
+        <v>-14901</v>
+      </c>
+      <c r="G91" s="15">
+        <v>-5658</v>
+      </c>
+      <c r="H91" s="15">
+        <v>-6798</v>
+      </c>
+      <c r="I91" s="15">
+        <v>-2505</v>
+      </c>
+      <c r="J91" s="15">
         <v>-4668</v>
       </c>
-      <c r="F91" s="15">
+      <c r="K91" s="15">
         <v>-105843</v>
       </c>
-      <c r="G91" s="15">
+      <c r="L91" s="15">
         <v>-40088</v>
       </c>
-      <c r="H91" s="15">
+      <c r="M91" s="15">
         <v>-35182</v>
       </c>
-      <c r="I91" s="15">
+      <c r="N91" s="15">
         <v>-3312</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -2436,203 +3506,328 @@
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11">
+      <c r="E93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="11">
+        <v>-52269</v>
+      </c>
+      <c r="J93" s="11">
         <v>-67284</v>
       </c>
-      <c r="F93" s="11">
+      <c r="K93" s="11">
         <v>-51250</v>
       </c>
-      <c r="G93" s="11">
+      <c r="L93" s="11">
         <v>-31106</v>
       </c>
-      <c r="H93" s="11">
+      <c r="M93" s="11">
         <v>-35682</v>
       </c>
-      <c r="I93" s="11">
+      <c r="N93" s="11">
         <v>-56882</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D94" s="13"/>
-      <c r="E94" s="13">
+      <c r="E94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="13">
+        <v>-37601</v>
+      </c>
+      <c r="J94" s="13">
         <v>-20817</v>
       </c>
-      <c r="F94" s="13">
+      <c r="K94" s="13">
         <v>-17470</v>
       </c>
-      <c r="G94" s="13">
-        <v>0</v>
-      </c>
-      <c r="H94" s="13">
-        <v>0</v>
-      </c>
-      <c r="I94" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L94" s="13">
+        <v>0</v>
+      </c>
+      <c r="M94" s="13">
+        <v>0</v>
+      </c>
+      <c r="N94" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11">
+      <c r="E95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="11">
+        <v>-6385</v>
+      </c>
+      <c r="J95" s="11">
         <v>-106</v>
       </c>
-      <c r="F95" s="11">
+      <c r="K95" s="11">
         <v>-823</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>-1108</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>183</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>-638</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D96" s="13"/>
-      <c r="E96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>13</v>
+      <c r="E96" s="13">
+        <v>-28703</v>
+      </c>
+      <c r="F96" s="13">
+        <v>-41810</v>
+      </c>
+      <c r="G96" s="13">
+        <v>-71749</v>
+      </c>
+      <c r="H96" s="13">
+        <v>-3099</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N96" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>13</v>
+      <c r="E97" s="11">
+        <v>-8388</v>
+      </c>
+      <c r="F97" s="11">
+        <v>5362</v>
+      </c>
+      <c r="G97" s="11">
+        <v>-12</v>
+      </c>
+      <c r="H97" s="11">
+        <v>-5747</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D98" s="13"/>
-      <c r="E98" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>13</v>
+      <c r="E98" s="13">
+        <v>0</v>
+      </c>
+      <c r="F98" s="13">
+        <v>-12409</v>
+      </c>
+      <c r="G98" s="13">
+        <v>1756</v>
+      </c>
+      <c r="H98" s="13">
+        <v>-5550</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17">
+        <v>-37091</v>
+      </c>
+      <c r="F99" s="17">
+        <v>-48857</v>
+      </c>
+      <c r="G99" s="17">
+        <v>-70005</v>
+      </c>
+      <c r="H99" s="17">
+        <v>-14396</v>
+      </c>
+      <c r="I99" s="17">
+        <v>-96255</v>
+      </c>
+      <c r="J99" s="17">
         <v>-88207</v>
       </c>
-      <c r="F99" s="17">
+      <c r="K99" s="17">
         <v>-69543</v>
       </c>
-      <c r="G99" s="17">
+      <c r="L99" s="17">
         <v>-32214</v>
       </c>
-      <c r="H99" s="17">
+      <c r="M99" s="17">
         <v>-35499</v>
       </c>
-      <c r="I99" s="17">
+      <c r="N99" s="17">
         <v>-57520</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D100" s="15"/>
-      <c r="E100" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="15" t="s">
-        <v>13</v>
+      <c r="E100" s="15">
+        <v>0</v>
+      </c>
+      <c r="F100" s="15">
+        <v>0</v>
+      </c>
+      <c r="G100" s="15">
+        <v>0</v>
+      </c>
+      <c r="H100" s="15">
+        <v>0</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J100" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N100" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17">
@@ -2644,36 +3839,66 @@
       <c r="G101" s="17">
         <v>0</v>
       </c>
-      <c r="H101" s="17">
-        <v>0</v>
+      <c r="H101" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I101" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="17">
+        <v>0</v>
+      </c>
+      <c r="K101" s="17">
+        <v>0</v>
+      </c>
+      <c r="L101" s="17">
+        <v>0</v>
+      </c>
+      <c r="M101" s="17">
+        <v>0</v>
+      </c>
+      <c r="N101" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15">
+        <v>-1100390</v>
+      </c>
+      <c r="F102" s="15">
+        <v>-1007614</v>
+      </c>
+      <c r="G102" s="15">
+        <v>-1474016</v>
+      </c>
+      <c r="H102" s="15">
+        <v>-1557045</v>
+      </c>
+      <c r="I102" s="15">
+        <v>-1787068</v>
+      </c>
+      <c r="J102" s="15">
         <v>-1662172</v>
       </c>
-      <c r="F102" s="15">
+      <c r="K102" s="15">
         <v>-2965325</v>
       </c>
-      <c r="G102" s="15">
+      <c r="L102" s="15">
         <v>-2975725</v>
       </c>
-      <c r="H102" s="15">
+      <c r="M102" s="15">
         <v>-3481584</v>
       </c>
-      <c r="I102" s="15">
+      <c r="N102" s="15">
         <v>-3660383</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2682,8 +3907,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2692,8 +3922,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2702,10 +3937,15 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -2724,8 +3964,23 @@
       <c r="I106" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2734,10 +3989,15 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -2746,104 +4006,169 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
+        <v>407837</v>
+      </c>
+      <c r="F109" s="11">
+        <v>529027</v>
+      </c>
+      <c r="G109" s="11">
+        <v>265387</v>
+      </c>
+      <c r="H109" s="11">
+        <v>236773</v>
+      </c>
+      <c r="I109" s="11">
+        <v>302248</v>
+      </c>
+      <c r="J109" s="11">
         <v>102922</v>
       </c>
-      <c r="F109" s="11">
+      <c r="K109" s="11">
         <v>136147</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>301869</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>306705</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>584319</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13">
+        <v>768778</v>
+      </c>
+      <c r="F110" s="13">
+        <v>641996</v>
+      </c>
+      <c r="G110" s="13">
+        <v>645023</v>
+      </c>
+      <c r="H110" s="13">
+        <v>514920</v>
+      </c>
+      <c r="I110" s="13">
+        <v>682458</v>
+      </c>
+      <c r="J110" s="13">
         <v>248143</v>
       </c>
-      <c r="F110" s="13">
+      <c r="K110" s="13">
         <v>331738</v>
       </c>
-      <c r="G110" s="13">
+      <c r="L110" s="13">
         <v>543013</v>
       </c>
-      <c r="H110" s="13">
+      <c r="M110" s="13">
         <v>962670</v>
       </c>
-      <c r="I110" s="13">
+      <c r="N110" s="13">
         <v>1191938</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
+        <v>238252</v>
+      </c>
+      <c r="F111" s="11">
+        <v>172667</v>
+      </c>
+      <c r="G111" s="11">
+        <v>370665</v>
+      </c>
+      <c r="H111" s="11">
+        <v>544202</v>
+      </c>
+      <c r="I111" s="11">
+        <v>1240382</v>
+      </c>
+      <c r="J111" s="11">
         <v>1078316</v>
       </c>
-      <c r="F111" s="11">
+      <c r="K111" s="11">
         <v>647887</v>
       </c>
-      <c r="G111" s="11">
+      <c r="L111" s="11">
         <v>847772</v>
       </c>
-      <c r="H111" s="11">
+      <c r="M111" s="11">
         <v>1141748</v>
       </c>
-      <c r="I111" s="11">
+      <c r="N111" s="11">
         <v>1117276</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15">
+        <v>1414867</v>
+      </c>
+      <c r="F112" s="15">
+        <v>1343690</v>
+      </c>
+      <c r="G112" s="15">
+        <v>1281075</v>
+      </c>
+      <c r="H112" s="15">
+        <v>1295895</v>
+      </c>
+      <c r="I112" s="15">
+        <v>2225088</v>
+      </c>
+      <c r="J112" s="15">
         <v>1429381</v>
       </c>
-      <c r="F112" s="15">
+      <c r="K112" s="15">
         <v>1115772</v>
       </c>
-      <c r="G112" s="15">
+      <c r="L112" s="15">
         <v>1692654</v>
       </c>
-      <c r="H112" s="15">
+      <c r="M112" s="15">
         <v>2411123</v>
       </c>
-      <c r="I112" s="15">
+      <c r="N112" s="15">
         <v>2893533</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -2852,104 +4177,169 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>691</v>
+      </c>
+      <c r="F114" s="11">
+        <v>-29</v>
+      </c>
+      <c r="G114" s="11">
+        <v>-100</v>
+      </c>
+      <c r="H114" s="11">
+        <v>0</v>
+      </c>
+      <c r="I114" s="11">
+        <v>1235</v>
+      </c>
+      <c r="J114" s="11">
         <v>1695</v>
       </c>
-      <c r="F114" s="11">
+      <c r="K114" s="11">
         <v>262019</v>
       </c>
-      <c r="G114" s="11">
-        <v>0</v>
-      </c>
-      <c r="H114" s="11">
+      <c r="L114" s="11">
+        <v>0</v>
+      </c>
+      <c r="M114" s="11">
         <v>1685</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>-600</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13">
-        <v>0</v>
+        <v>1748</v>
       </c>
       <c r="F115" s="13">
-        <v>0</v>
+        <v>-379</v>
       </c>
       <c r="G115" s="13">
+        <v>-28</v>
+      </c>
+      <c r="H115" s="13">
+        <v>0</v>
+      </c>
+      <c r="I115" s="13">
+        <v>0</v>
+      </c>
+      <c r="J115" s="13">
+        <v>0</v>
+      </c>
+      <c r="K115" s="13">
+        <v>0</v>
+      </c>
+      <c r="L115" s="13">
         <v>105</v>
       </c>
-      <c r="H115" s="13">
+      <c r="M115" s="13">
         <v>73</v>
       </c>
-      <c r="I115" s="13">
+      <c r="N115" s="13">
         <v>-27</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>72243</v>
+      </c>
+      <c r="F116" s="11">
+        <v>4412</v>
+      </c>
+      <c r="G116" s="11">
+        <v>-4530</v>
+      </c>
+      <c r="H116" s="11">
+        <v>24643</v>
+      </c>
+      <c r="I116" s="11">
+        <v>-47</v>
+      </c>
+      <c r="J116" s="11">
         <v>-95</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>-127022</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>19248</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>12537</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>-2685</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15">
+        <v>74682</v>
+      </c>
+      <c r="F117" s="15">
+        <v>4004</v>
+      </c>
+      <c r="G117" s="15">
+        <v>-4658</v>
+      </c>
+      <c r="H117" s="15">
+        <v>24643</v>
+      </c>
+      <c r="I117" s="15">
+        <v>1188</v>
+      </c>
+      <c r="J117" s="15">
         <v>1600</v>
       </c>
-      <c r="F117" s="15">
+      <c r="K117" s="15">
         <v>134997</v>
       </c>
-      <c r="G117" s="15">
+      <c r="L117" s="15">
         <v>19353</v>
       </c>
-      <c r="H117" s="15">
+      <c r="M117" s="15">
         <v>14295</v>
       </c>
-      <c r="I117" s="15">
+      <c r="N117" s="15">
         <v>-3312</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -2958,192 +4348,317 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="11">
+      <c r="E119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="11">
+        <v>101201</v>
+      </c>
+      <c r="J119" s="11">
         <v>81071</v>
       </c>
-      <c r="F119" s="11">
+      <c r="K119" s="11">
         <v>85277</v>
       </c>
-      <c r="G119" s="11">
+      <c r="L119" s="11">
         <v>43202</v>
       </c>
-      <c r="H119" s="11">
+      <c r="M119" s="11">
         <v>72616</v>
       </c>
-      <c r="I119" s="11">
+      <c r="N119" s="11">
         <v>117055</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D120" s="13"/>
-      <c r="E120" s="13">
+      <c r="E120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="13">
+        <v>32700</v>
+      </c>
+      <c r="J120" s="13">
         <v>23627</v>
       </c>
-      <c r="F120" s="13">
+      <c r="K120" s="13">
         <v>19416</v>
       </c>
-      <c r="G120" s="13">
-        <v>0</v>
-      </c>
-      <c r="H120" s="13">
-        <v>0</v>
-      </c>
-      <c r="I120" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L120" s="13">
+        <v>0</v>
+      </c>
+      <c r="M120" s="13">
+        <v>0</v>
+      </c>
+      <c r="N120" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11">
+      <c r="E121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" s="11">
+        <v>6125</v>
+      </c>
+      <c r="J121" s="11">
         <v>424</v>
       </c>
-      <c r="F121" s="11">
+      <c r="K121" s="11">
         <v>4955</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>16143</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>183</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>1065</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D122" s="13"/>
-      <c r="E122" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="13" t="s">
-        <v>13</v>
+      <c r="E122" s="13">
+        <v>74714</v>
+      </c>
+      <c r="F122" s="13">
+        <v>108271</v>
+      </c>
+      <c r="G122" s="13">
+        <v>50381</v>
+      </c>
+      <c r="H122" s="13">
+        <v>4973</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L122" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M122" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N122" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>13</v>
+      <c r="E123" s="11">
+        <v>-3139</v>
+      </c>
+      <c r="F123" s="11">
+        <v>-6882</v>
+      </c>
+      <c r="G123" s="11">
+        <v>10502</v>
+      </c>
+      <c r="H123" s="11">
+        <v>1106</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D124" s="13"/>
-      <c r="E124" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>13</v>
+      <c r="E124" s="13">
+        <v>0</v>
+      </c>
+      <c r="F124" s="13">
+        <v>6329</v>
+      </c>
+      <c r="G124" s="13">
+        <v>2887</v>
+      </c>
+      <c r="H124" s="13">
+        <v>4195</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N124" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
       <c r="E125" s="17">
+        <v>71575</v>
+      </c>
+      <c r="F125" s="17">
+        <v>107718</v>
+      </c>
+      <c r="G125" s="17">
+        <v>63770</v>
+      </c>
+      <c r="H125" s="17">
+        <v>10274</v>
+      </c>
+      <c r="I125" s="17">
+        <v>140026</v>
+      </c>
+      <c r="J125" s="17">
         <v>105122</v>
       </c>
-      <c r="F125" s="17">
+      <c r="K125" s="17">
         <v>109648</v>
       </c>
-      <c r="G125" s="17">
+      <c r="L125" s="17">
         <v>59345</v>
       </c>
-      <c r="H125" s="17">
+      <c r="M125" s="17">
         <v>72799</v>
       </c>
-      <c r="I125" s="17">
+      <c r="N125" s="17">
         <v>118120</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15">
+        <v>1561124</v>
+      </c>
+      <c r="F126" s="15">
+        <v>1455412</v>
+      </c>
+      <c r="G126" s="15">
+        <v>1340187</v>
+      </c>
+      <c r="H126" s="15">
+        <v>1330812</v>
+      </c>
+      <c r="I126" s="15">
+        <v>2366302</v>
+      </c>
+      <c r="J126" s="15">
         <v>1536103</v>
       </c>
-      <c r="F126" s="15">
+      <c r="K126" s="15">
         <v>1360417</v>
       </c>
-      <c r="G126" s="15">
+      <c r="L126" s="15">
         <v>1771352</v>
       </c>
-      <c r="H126" s="15">
+      <c r="M126" s="15">
         <v>2498217</v>
       </c>
-      <c r="I126" s="15">
+      <c r="N126" s="15">
         <v>3008341</v>
       </c>
     </row>

--- a/database/industries/darou/dalber/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/dalber/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF62553-C6F8-463B-9826-33A850F2F172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C08FBDF-C046-412E-9216-7F78EDC678F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -685,12 +685,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -705,7 +705,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -739,7 +739,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -754,7 +754,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -803,7 +803,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -840,7 +840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -855,7 +855,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -881,37 +881,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>9174104</v>
+        <v>7328640</v>
       </c>
       <c r="F11" s="11">
-        <v>7328640</v>
+        <v>3939459</v>
       </c>
       <c r="G11" s="11">
-        <v>3939459</v>
+        <v>3881141</v>
       </c>
       <c r="H11" s="11">
-        <v>3881141</v>
+        <v>4132967</v>
       </c>
       <c r="I11" s="11">
-        <v>4132967</v>
-      </c>
-      <c r="J11" s="11">
         <v>4982539</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
+        <v>7316290</v>
       </c>
       <c r="L11" s="11">
-        <v>7316290</v>
+        <v>8388915</v>
       </c>
       <c r="M11" s="11">
-        <v>8388915</v>
+        <v>9695010</v>
       </c>
       <c r="N11" s="11">
-        <v>9695010</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8732606</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -920,37 +920,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>6796933</v>
+        <v>5963631</v>
       </c>
       <c r="F12" s="13">
-        <v>5963631</v>
+        <v>5169120</v>
       </c>
       <c r="G12" s="13">
-        <v>5169120</v>
+        <v>5018533</v>
       </c>
       <c r="H12" s="13">
-        <v>5018533</v>
+        <v>4881770</v>
       </c>
       <c r="I12" s="13">
-        <v>4881770</v>
-      </c>
-      <c r="J12" s="13">
         <v>3546314</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13">
+        <v>5747143</v>
       </c>
       <c r="L12" s="13">
-        <v>5747143</v>
+        <v>7845295</v>
       </c>
       <c r="M12" s="13">
-        <v>7845295</v>
+        <v>6933007</v>
       </c>
       <c r="N12" s="13">
-        <v>6933007</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5290599</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -959,74 +959,74 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>156314</v>
+        <v>165010</v>
       </c>
       <c r="F13" s="11">
-        <v>165010</v>
+        <v>213542</v>
       </c>
       <c r="G13" s="11">
-        <v>213542</v>
+        <v>237644</v>
       </c>
       <c r="H13" s="11">
-        <v>237644</v>
+        <v>186048</v>
       </c>
       <c r="I13" s="11">
-        <v>186048</v>
-      </c>
-      <c r="J13" s="11">
         <v>214618</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>189963</v>
       </c>
       <c r="L13" s="11">
-        <v>189963</v>
+        <v>303783</v>
       </c>
       <c r="M13" s="11">
-        <v>303783</v>
+        <v>249923</v>
       </c>
       <c r="N13" s="11">
-        <v>249923</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>232509</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>16127351</v>
+        <v>13457281</v>
       </c>
       <c r="F14" s="15">
-        <v>13457281</v>
+        <v>9322121</v>
       </c>
       <c r="G14" s="15">
-        <v>9322121</v>
+        <v>9137318</v>
       </c>
       <c r="H14" s="15">
-        <v>9137318</v>
+        <v>9200785</v>
       </c>
       <c r="I14" s="15">
-        <v>9200785</v>
+        <v>8743471</v>
       </c>
       <c r="J14" s="15">
-        <v>8743471</v>
+        <v>0</v>
       </c>
       <c r="K14" s="15">
-        <v>0</v>
+        <v>13253396</v>
       </c>
       <c r="L14" s="15">
-        <v>13253396</v>
+        <v>16537993</v>
       </c>
       <c r="M14" s="15">
-        <v>16537993</v>
+        <v>16877940</v>
       </c>
       <c r="N14" s="15">
-        <v>16877940</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14255714</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
-        <v>69515</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="H16" s="11">
-        <v>0</v>
+        <v>61164</v>
       </c>
       <c r="I16" s="11">
-        <v>61164</v>
-      </c>
-      <c r="J16" s="11">
         <v>150040</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>18</v>
+      <c r="J16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
       </c>
       <c r="L16" s="11">
-        <v>0</v>
+        <v>148853</v>
       </c>
       <c r="M16" s="11">
-        <v>148853</v>
+        <v>0</v>
       </c>
       <c r="N16" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1091,13 +1091,13 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>30404</v>
+        <v>-27000</v>
       </c>
       <c r="F17" s="13">
-        <v>-27000</v>
+        <v>15000</v>
       </c>
       <c r="G17" s="13">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="H17" s="13">
         <v>0</v>
@@ -1105,23 +1105,23 @@
       <c r="I17" s="13">
         <v>0</v>
       </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>18</v>
+      <c r="J17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1266</v>
       </c>
       <c r="L17" s="13">
-        <v>1266</v>
+        <v>1094</v>
       </c>
       <c r="M17" s="13">
-        <v>1094</v>
+        <v>0</v>
       </c>
       <c r="N17" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1130,74 +1130,74 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
-        <v>15211</v>
+        <v>17100</v>
       </c>
       <c r="F18" s="11">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>5455</v>
       </c>
       <c r="H18" s="11">
-        <v>5455</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>18</v>
+      <c r="J18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="11">
+        <v>805</v>
       </c>
       <c r="L18" s="11">
-        <v>805</v>
+        <v>13901</v>
       </c>
       <c r="M18" s="11">
-        <v>13901</v>
+        <v>0</v>
       </c>
       <c r="N18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24615</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>115130</v>
+        <v>-9900</v>
       </c>
       <c r="F19" s="15">
-        <v>-9900</v>
+        <v>15000</v>
       </c>
       <c r="G19" s="15">
-        <v>15000</v>
+        <v>5455</v>
       </c>
       <c r="H19" s="15">
-        <v>5455</v>
+        <v>61164</v>
       </c>
       <c r="I19" s="15">
-        <v>61164</v>
+        <v>150040</v>
       </c>
       <c r="J19" s="15">
-        <v>150040</v>
+        <v>0</v>
       </c>
       <c r="K19" s="15">
-        <v>0</v>
+        <v>2071</v>
       </c>
       <c r="L19" s="15">
-        <v>2071</v>
+        <v>163848</v>
       </c>
       <c r="M19" s="15">
-        <v>163848</v>
+        <v>0</v>
       </c>
       <c r="N19" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24615</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
@@ -1231,29 +1231,29 @@
       <c r="G21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>18</v>
+      <c r="H21" s="11">
+        <v>2123325</v>
       </c>
       <c r="I21" s="11">
-        <v>2123325</v>
-      </c>
-      <c r="J21" s="11">
         <v>2140581</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>18</v>
+      <c r="J21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="11">
+        <v>998654</v>
       </c>
       <c r="L21" s="11">
-        <v>998654</v>
+        <v>1365524</v>
       </c>
       <c r="M21" s="11">
-        <v>1365524</v>
+        <v>2105915</v>
       </c>
       <c r="N21" s="11">
-        <v>2105915</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1840693</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>19</v>
       </c>
@@ -1270,17 +1270,17 @@
       <c r="G22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>18</v>
+      <c r="H22" s="13">
+        <v>749529</v>
       </c>
       <c r="I22" s="13">
-        <v>749529</v>
-      </c>
-      <c r="J22" s="13">
         <v>403560</v>
       </c>
-      <c r="K22" s="13" t="s">
-        <v>18</v>
+      <c r="J22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0</v>
       </c>
       <c r="L22" s="13">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>383209</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
@@ -1309,29 +1309,29 @@
       <c r="G23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>18</v>
+      <c r="H23" s="11">
+        <v>277</v>
       </c>
       <c r="I23" s="11">
-        <v>277</v>
-      </c>
-      <c r="J23" s="11">
         <v>126</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>18</v>
+      <c r="J23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1725</v>
       </c>
       <c r="L23" s="11">
-        <v>1725</v>
+        <v>0</v>
       </c>
       <c r="M23" s="11">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="N23" s="11">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
@@ -1348,8 +1348,8 @@
       <c r="G24" s="13">
         <v>0</v>
       </c>
-      <c r="H24" s="13">
-        <v>0</v>
+      <c r="H24" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>18</v>
@@ -1370,7 +1370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
@@ -1387,8 +1387,8 @@
       <c r="G25" s="11">
         <v>0</v>
       </c>
-      <c r="H25" s="11">
-        <v>0</v>
+      <c r="H25" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>18</v>
@@ -1409,7 +1409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>30</v>
       </c>
@@ -1426,8 +1426,8 @@
       <c r="G26" s="13">
         <v>0</v>
       </c>
-      <c r="H26" s="13">
-        <v>0</v>
+      <c r="H26" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>18</v>
@@ -1448,7 +1448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>31</v>
       </c>
@@ -1464,28 +1464,28 @@
         <v>0</v>
       </c>
       <c r="H27" s="17">
-        <v>0</v>
+        <v>2873131</v>
       </c>
       <c r="I27" s="17">
-        <v>2873131</v>
+        <v>2544267</v>
       </c>
       <c r="J27" s="17">
-        <v>2544267</v>
+        <v>0</v>
       </c>
       <c r="K27" s="17">
-        <v>0</v>
+        <v>1000379</v>
       </c>
       <c r="L27" s="17">
-        <v>1000379</v>
+        <v>1365524</v>
       </c>
       <c r="M27" s="17">
-        <v>1365524</v>
+        <v>2106450</v>
       </c>
       <c r="N27" s="17">
-        <v>2106450</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2224202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>32</v>
       </c>
@@ -1502,8 +1502,8 @@
       <c r="G28" s="15">
         <v>0</v>
       </c>
-      <c r="H28" s="15">
-        <v>0</v>
+      <c r="H28" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>18</v>
@@ -1524,7 +1524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>34</v>
       </c>
@@ -1536,69 +1536,69 @@
       <c r="F29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="17">
-        <v>0</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>18</v>
+      <c r="G29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="17">
+        <v>-21052</v>
       </c>
       <c r="I29" s="17">
-        <v>-21052</v>
-      </c>
-      <c r="J29" s="17">
         <v>45589</v>
       </c>
-      <c r="K29" s="17" t="s">
-        <v>18</v>
+      <c r="J29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="17">
+        <v>-79815</v>
       </c>
       <c r="L29" s="17">
-        <v>-79815</v>
+        <v>79815</v>
       </c>
       <c r="M29" s="17">
-        <v>79815</v>
+        <v>0</v>
       </c>
       <c r="N29" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-489716</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <v>16242481</v>
+        <v>13447381</v>
       </c>
       <c r="F30" s="15">
-        <v>13447381</v>
+        <v>9337121</v>
       </c>
       <c r="G30" s="15">
-        <v>9337121</v>
+        <v>9142773</v>
       </c>
       <c r="H30" s="15">
-        <v>9142773</v>
+        <v>12114028</v>
       </c>
       <c r="I30" s="15">
-        <v>12114028</v>
+        <v>11483367</v>
       </c>
       <c r="J30" s="15">
-        <v>11483367</v>
+        <v>0</v>
       </c>
       <c r="K30" s="15">
-        <v>0</v>
+        <v>14176031</v>
       </c>
       <c r="L30" s="15">
-        <v>14176031</v>
+        <v>18147180</v>
       </c>
       <c r="M30" s="15">
-        <v>18147180</v>
+        <v>18984390</v>
       </c>
       <c r="N30" s="15">
-        <v>18984390</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16014815</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1613,7 +1613,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1628,7 +1628,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1643,7 +1643,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1695,7 +1695,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>37</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>16</v>
       </c>
@@ -1721,37 +1721,37 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>653671</v>
+        <v>748130</v>
       </c>
       <c r="F37" s="11">
-        <v>748130</v>
+        <v>603695</v>
       </c>
       <c r="G37" s="11">
-        <v>603695</v>
+        <v>438170</v>
       </c>
       <c r="H37" s="11">
-        <v>438170</v>
+        <v>517204</v>
       </c>
       <c r="I37" s="11">
-        <v>517204</v>
-      </c>
-      <c r="J37" s="11">
         <v>476142</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>18</v>
+      <c r="J37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="11">
+        <v>730831</v>
       </c>
       <c r="L37" s="11">
-        <v>730831</v>
+        <v>911007</v>
       </c>
       <c r="M37" s="11">
-        <v>911007</v>
+        <v>1285321</v>
       </c>
       <c r="N37" s="11">
-        <v>1285321</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1307354</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>19</v>
       </c>
@@ -1760,37 +1760,37 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>1403600</v>
+        <v>1133088</v>
       </c>
       <c r="F38" s="13">
-        <v>1133088</v>
+        <v>1537085</v>
       </c>
       <c r="G38" s="13">
-        <v>1537085</v>
+        <v>1074999</v>
       </c>
       <c r="H38" s="13">
-        <v>1074999</v>
+        <v>1404363</v>
       </c>
       <c r="I38" s="13">
-        <v>1404363</v>
-      </c>
-      <c r="J38" s="13">
         <v>1109976</v>
       </c>
-      <c r="K38" s="13" t="s">
-        <v>18</v>
+      <c r="J38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="13">
+        <v>1346303</v>
       </c>
       <c r="L38" s="13">
-        <v>1346303</v>
+        <v>2038854</v>
       </c>
       <c r="M38" s="13">
-        <v>2038854</v>
+        <v>2499322</v>
       </c>
       <c r="N38" s="13">
-        <v>2499322</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2288478</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>21</v>
       </c>
@@ -1799,74 +1799,74 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>540348</v>
+        <v>406328</v>
       </c>
       <c r="F39" s="11">
-        <v>406328</v>
+        <v>1078442</v>
       </c>
       <c r="G39" s="11">
-        <v>1078442</v>
+        <v>1318577</v>
       </c>
       <c r="H39" s="11">
-        <v>1318577</v>
+        <v>1991830</v>
       </c>
       <c r="I39" s="11">
-        <v>1991830</v>
-      </c>
-      <c r="J39" s="11">
         <v>2005429</v>
       </c>
-      <c r="K39" s="11" t="s">
-        <v>18</v>
+      <c r="J39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="11">
+        <v>2518943</v>
       </c>
       <c r="L39" s="11">
-        <v>2518943</v>
+        <v>2872165</v>
       </c>
       <c r="M39" s="11">
-        <v>2872165</v>
+        <v>2708441</v>
       </c>
       <c r="N39" s="11">
-        <v>2708441</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2017551</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
-        <v>2597619</v>
+        <v>2287546</v>
       </c>
       <c r="F40" s="15">
-        <v>2287546</v>
+        <v>3219222</v>
       </c>
       <c r="G40" s="15">
-        <v>3219222</v>
+        <v>2831746</v>
       </c>
       <c r="H40" s="15">
-        <v>2831746</v>
+        <v>3913397</v>
       </c>
       <c r="I40" s="15">
-        <v>3913397</v>
+        <v>3591547</v>
       </c>
       <c r="J40" s="15">
-        <v>3591547</v>
+        <v>0</v>
       </c>
       <c r="K40" s="15">
-        <v>0</v>
+        <v>4596077</v>
       </c>
       <c r="L40" s="15">
-        <v>4596077</v>
+        <v>5822026</v>
       </c>
       <c r="M40" s="15">
-        <v>5822026</v>
+        <v>6493084</v>
       </c>
       <c r="N40" s="15">
-        <v>6493084</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5613383</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>39</v>
       </c>
@@ -1883,7 +1883,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>16</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>2310</v>
+        <v>0</v>
       </c>
       <c r="F42" s="11">
         <v>0</v>
@@ -1901,28 +1901,28 @@
         <v>0</v>
       </c>
       <c r="H42" s="11">
-        <v>0</v>
+        <v>3693</v>
       </c>
       <c r="I42" s="11">
-        <v>3693</v>
-      </c>
-      <c r="J42" s="11">
         <v>6268</v>
       </c>
-      <c r="K42" s="11" t="s">
-        <v>18</v>
+      <c r="J42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
       </c>
       <c r="L42" s="11">
-        <v>0</v>
+        <v>10342</v>
       </c>
       <c r="M42" s="11">
-        <v>10342</v>
+        <v>0</v>
       </c>
       <c r="N42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>19</v>
       </c>
@@ -1931,13 +1931,13 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
-        <v>4247</v>
+        <v>0</v>
       </c>
       <c r="F43" s="13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G43" s="13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H43" s="13">
         <v>0</v>
@@ -1945,23 +1945,23 @@
       <c r="I43" s="13">
         <v>0</v>
       </c>
-      <c r="J43" s="13">
-        <v>0</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>18</v>
+      <c r="J43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="13">
+        <v>371</v>
       </c>
       <c r="L43" s="13">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="M43" s="13">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="N43" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>21</v>
       </c>
@@ -1970,74 +1970,74 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>111205</v>
+        <v>18905</v>
       </c>
       <c r="F44" s="11">
-        <v>18905</v>
+        <v>2</v>
       </c>
       <c r="G44" s="11">
-        <v>2</v>
+        <v>31441</v>
       </c>
       <c r="H44" s="11">
-        <v>31441</v>
+        <v>0</v>
       </c>
       <c r="I44" s="11">
         <v>0</v>
       </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>18</v>
+      <c r="J44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="11">
+        <v>59070</v>
       </c>
       <c r="L44" s="11">
-        <v>59070</v>
+        <v>38801</v>
       </c>
       <c r="M44" s="11">
-        <v>38801</v>
+        <v>0</v>
       </c>
       <c r="N44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>253128</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>117762</v>
+        <v>18905</v>
       </c>
       <c r="F45" s="15">
-        <v>18905</v>
+        <v>1002</v>
       </c>
       <c r="G45" s="15">
-        <v>1002</v>
+        <v>31441</v>
       </c>
       <c r="H45" s="15">
-        <v>31441</v>
+        <v>3693</v>
       </c>
       <c r="I45" s="15">
-        <v>3693</v>
+        <v>6268</v>
       </c>
       <c r="J45" s="15">
-        <v>6268</v>
+        <v>0</v>
       </c>
       <c r="K45" s="15">
-        <v>0</v>
+        <v>59441</v>
       </c>
       <c r="L45" s="15">
-        <v>59441</v>
+        <v>49477</v>
       </c>
       <c r="M45" s="15">
-        <v>49477</v>
+        <v>0</v>
       </c>
       <c r="N45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>253129</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>40</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>16</v>
       </c>
@@ -2071,29 +2071,29 @@
       <c r="G47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>18</v>
+      <c r="H47" s="11">
+        <v>145398</v>
       </c>
       <c r="I47" s="11">
-        <v>145398</v>
-      </c>
-      <c r="J47" s="11">
         <v>148355</v>
       </c>
-      <c r="K47" s="11" t="s">
-        <v>18</v>
+      <c r="J47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="11">
+        <v>74308</v>
       </c>
       <c r="L47" s="11">
-        <v>74308</v>
+        <v>108298</v>
       </c>
       <c r="M47" s="11">
-        <v>108298</v>
+        <v>173937</v>
       </c>
       <c r="N47" s="11">
-        <v>173937</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>148973</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>19</v>
       </c>
@@ -2110,17 +2110,17 @@
       <c r="G48" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>18</v>
+      <c r="H48" s="13">
+        <v>63448</v>
       </c>
       <c r="I48" s="13">
-        <v>63448</v>
-      </c>
-      <c r="J48" s="13">
         <v>44444</v>
       </c>
-      <c r="K48" s="13" t="s">
-        <v>18</v>
+      <c r="J48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="13">
+        <v>0</v>
       </c>
       <c r="L48" s="13">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>77135</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>21</v>
       </c>
@@ -2149,29 +2149,29 @@
       <c r="G49" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>18</v>
+      <c r="H49" s="11">
+        <v>2765</v>
       </c>
       <c r="I49" s="11">
-        <v>2765</v>
-      </c>
-      <c r="J49" s="11">
         <v>530</v>
       </c>
-      <c r="K49" s="11" t="s">
-        <v>18</v>
+      <c r="J49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="11">
+        <v>17251</v>
       </c>
       <c r="L49" s="11">
-        <v>17251</v>
+        <v>0</v>
       </c>
       <c r="M49" s="11">
-        <v>0</v>
+        <v>1703</v>
       </c>
       <c r="N49" s="11">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>26</v>
       </c>
@@ -2180,17 +2180,17 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>103417</v>
+        <v>150081</v>
       </c>
       <c r="F50" s="13">
-        <v>150081</v>
+        <v>122130</v>
       </c>
       <c r="G50" s="13">
-        <v>122130</v>
-      </c>
-      <c r="H50" s="13">
         <v>8072</v>
       </c>
+      <c r="H50" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I50" s="13" t="s">
         <v>18</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>28</v>
       </c>
@@ -2219,17 +2219,17 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>11194</v>
+        <v>-12244</v>
       </c>
       <c r="F51" s="11">
-        <v>-12244</v>
+        <v>10514</v>
       </c>
       <c r="G51" s="11">
-        <v>10514</v>
-      </c>
-      <c r="H51" s="11">
         <v>6853</v>
       </c>
+      <c r="H51" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I51" s="11" t="s">
         <v>18</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>30</v>
       </c>
@@ -2258,17 +2258,17 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>-5945</v>
+        <v>18738</v>
       </c>
       <c r="F52" s="13">
-        <v>18738</v>
+        <v>1131</v>
       </c>
       <c r="G52" s="13">
-        <v>1131</v>
-      </c>
-      <c r="H52" s="13">
         <v>9745</v>
       </c>
+      <c r="H52" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I52" s="13" t="s">
         <v>18</v>
       </c>
@@ -2288,44 +2288,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17">
-        <v>108666</v>
+        <v>156575</v>
       </c>
       <c r="F53" s="17">
-        <v>156575</v>
+        <v>133775</v>
       </c>
       <c r="G53" s="17">
-        <v>133775</v>
+        <v>24670</v>
       </c>
       <c r="H53" s="17">
-        <v>24670</v>
+        <v>211611</v>
       </c>
       <c r="I53" s="17">
-        <v>211611</v>
+        <v>193329</v>
       </c>
       <c r="J53" s="17">
-        <v>193329</v>
+        <v>0</v>
       </c>
       <c r="K53" s="17">
-        <v>0</v>
+        <v>91559</v>
       </c>
       <c r="L53" s="17">
-        <v>91559</v>
+        <v>108298</v>
       </c>
       <c r="M53" s="17">
-        <v>108298</v>
+        <v>175640</v>
       </c>
       <c r="N53" s="17">
-        <v>175640</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>226710</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>32</v>
       </c>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>-122858</v>
+        <v>-50084</v>
       </c>
       <c r="F54" s="15">
-        <v>-50084</v>
+        <v>-184290</v>
       </c>
       <c r="G54" s="15">
-        <v>-184290</v>
-      </c>
-      <c r="H54" s="15">
         <v>-34032</v>
       </c>
+      <c r="H54" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I54" s="15" t="s">
         <v>18</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>34</v>
       </c>
@@ -2373,74 +2373,74 @@
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17">
-        <v>-403353</v>
+        <v>-6512</v>
       </c>
       <c r="F55" s="17">
-        <v>-6512</v>
-      </c>
-      <c r="G55" s="17">
         <v>-467584</v>
       </c>
-      <c r="H55" s="17" t="s">
-        <v>18</v>
+      <c r="G55" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="17">
+        <v>-613864</v>
       </c>
       <c r="I55" s="17">
-        <v>-613864</v>
-      </c>
-      <c r="J55" s="17">
         <v>-14463</v>
       </c>
-      <c r="K55" s="17" t="s">
-        <v>18</v>
+      <c r="J55" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="17">
+        <v>-39042</v>
       </c>
       <c r="L55" s="17">
-        <v>-39042</v>
+        <v>-140791</v>
       </c>
       <c r="M55" s="17">
-        <v>-140791</v>
+        <v>-61781</v>
       </c>
       <c r="N55" s="17">
-        <v>-61781</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-116050</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
-        <v>2297836</v>
+        <v>2406430</v>
       </c>
       <c r="F56" s="15">
-        <v>2406430</v>
+        <v>2702125</v>
       </c>
       <c r="G56" s="15">
-        <v>2702125</v>
+        <v>2853825</v>
       </c>
       <c r="H56" s="15">
-        <v>2853825</v>
+        <v>3514837</v>
       </c>
       <c r="I56" s="15">
-        <v>3514837</v>
+        <v>3776681</v>
       </c>
       <c r="J56" s="15">
-        <v>3776681</v>
+        <v>0</v>
       </c>
       <c r="K56" s="15">
-        <v>0</v>
+        <v>4708035</v>
       </c>
       <c r="L56" s="15">
-        <v>4708035</v>
+        <v>5839010</v>
       </c>
       <c r="M56" s="15">
-        <v>5839010</v>
+        <v>6606943</v>
       </c>
       <c r="N56" s="15">
-        <v>6606943</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5977172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2455,7 +2455,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2470,7 +2470,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2485,7 +2485,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>41</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2537,7 +2537,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>42</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
@@ -2563,37 +2563,37 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>71252</v>
+        <v>102083</v>
       </c>
       <c r="F63" s="11">
-        <v>102083</v>
+        <v>119343</v>
       </c>
       <c r="G63" s="11">
-        <v>119343</v>
+        <v>112897</v>
       </c>
       <c r="H63" s="11">
-        <v>112897</v>
+        <v>125141</v>
       </c>
       <c r="I63" s="11">
-        <v>125141</v>
+        <v>77249</v>
       </c>
       <c r="J63" s="11">
-        <v>77249</v>
+        <v>90440</v>
       </c>
       <c r="K63" s="11">
-        <v>90440</v>
+        <v>99891</v>
       </c>
       <c r="L63" s="11">
-        <v>99891</v>
+        <v>108597</v>
       </c>
       <c r="M63" s="11">
-        <v>108597</v>
+        <v>132576</v>
       </c>
       <c r="N63" s="11">
-        <v>132576</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>149709</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>19</v>
       </c>
@@ -2602,37 +2602,37 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>206505</v>
+        <v>190000</v>
       </c>
       <c r="F64" s="13">
-        <v>190000</v>
+        <v>238430</v>
       </c>
       <c r="G64" s="13">
-        <v>238430</v>
+        <v>214206</v>
       </c>
       <c r="H64" s="13">
-        <v>214206</v>
+        <v>287675</v>
       </c>
       <c r="I64" s="13">
-        <v>287675</v>
+        <v>243619</v>
       </c>
       <c r="J64" s="13">
-        <v>243619</v>
+        <v>232218</v>
       </c>
       <c r="K64" s="13">
-        <v>232218</v>
+        <v>234256</v>
       </c>
       <c r="L64" s="13">
-        <v>234256</v>
+        <v>259882</v>
       </c>
       <c r="M64" s="13">
-        <v>259882</v>
+        <v>360496</v>
       </c>
       <c r="N64" s="13">
-        <v>360496</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>432556</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>21</v>
       </c>
@@ -2641,37 +2641,37 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>3456811</v>
+        <v>2462445</v>
       </c>
       <c r="F65" s="11">
-        <v>2462445</v>
+        <v>4574299</v>
       </c>
       <c r="G65" s="11">
-        <v>4574299</v>
+        <v>5548539</v>
       </c>
       <c r="H65" s="11">
-        <v>5548539</v>
+        <v>10706001</v>
       </c>
       <c r="I65" s="11">
-        <v>10706001</v>
+        <v>8153240</v>
       </c>
       <c r="J65" s="11">
-        <v>8153240</v>
+        <v>14738244</v>
       </c>
       <c r="K65" s="11">
-        <v>14738244</v>
+        <v>13260177</v>
       </c>
       <c r="L65" s="11">
-        <v>13260177</v>
+        <v>9454660</v>
       </c>
       <c r="M65" s="11">
-        <v>9454660</v>
+        <v>10837102</v>
       </c>
       <c r="N65" s="11">
-        <v>10837102</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8677303</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>45</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>16</v>
       </c>
@@ -2696,8 +2696,8 @@
         <v>43</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11">
-        <v>33230</v>
+      <c r="E67" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>18</v>
@@ -2705,29 +2705,29 @@
       <c r="G67" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>18</v>
+      <c r="H67" s="11">
+        <v>60379</v>
       </c>
       <c r="I67" s="11">
-        <v>60379</v>
-      </c>
-      <c r="J67" s="11">
         <v>41776</v>
       </c>
+      <c r="J67" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K67" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M67" s="11">
+      <c r="L67" s="11">
         <v>69478</v>
       </c>
+      <c r="M67" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="N67" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>19</v>
       </c>
@@ -2735,15 +2735,15 @@
         <v>44</v>
       </c>
       <c r="D68" s="13"/>
-      <c r="E68" s="13">
-        <v>139686</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="13">
+      <c r="E68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="13">
         <v>23810</v>
       </c>
+      <c r="G68" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="H68" s="13" t="s">
         <v>18</v>
       </c>
@@ -2753,20 +2753,20 @@
       <c r="J68" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K68" s="13" t="s">
-        <v>18</v>
+      <c r="K68" s="13">
+        <v>293049</v>
       </c>
       <c r="L68" s="13">
-        <v>293049</v>
-      </c>
-      <c r="M68" s="13">
         <v>305302</v>
       </c>
+      <c r="M68" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="N68" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>21</v>
       </c>
@@ -2775,37 +2775,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>7310828</v>
-      </c>
-      <c r="F69" s="11">
         <v>1105556</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="11">
+      <c r="F69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="11">
         <v>5763703</v>
       </c>
+      <c r="H69" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I69" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J69" s="11" t="s">
-        <v>18</v>
+      <c r="J69" s="11">
+        <v>-409470</v>
       </c>
       <c r="K69" s="11">
-        <v>-409470</v>
+        <v>73378882</v>
       </c>
       <c r="L69" s="11">
-        <v>73378882</v>
-      </c>
-      <c r="M69" s="11">
         <v>2791238</v>
       </c>
-      <c r="N69" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="11">
+        <v>10283486</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>46</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>16</v>
       </c>
@@ -2857,11 +2857,11 @@
       <c r="M71" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N71" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N71" s="11">
+        <v>80933</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>19</v>
       </c>
@@ -2896,11 +2896,11 @@
       <c r="M72" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N72" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N72" s="13">
+        <v>201287</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>21</v>
       </c>
@@ -2935,11 +2935,11 @@
       <c r="M73" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N73" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N73" s="11">
+        <v>2006667</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>26</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>28</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>30</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3071,7 +3071,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3086,7 +3086,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3101,7 +3101,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
         <v>49</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3153,7 +3153,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>50</v>
       </c>
@@ -3170,7 +3170,7 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>16</v>
       </c>
@@ -3179,37 +3179,37 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>-211216</v>
+        <v>-219103</v>
       </c>
       <c r="F83" s="11">
-        <v>-219103</v>
+        <v>-204761</v>
       </c>
       <c r="G83" s="11">
-        <v>-204761</v>
+        <v>-201397</v>
       </c>
       <c r="H83" s="11">
-        <v>-201397</v>
+        <v>-229434</v>
       </c>
       <c r="I83" s="11">
-        <v>-229434</v>
+        <v>-281975</v>
       </c>
       <c r="J83" s="11">
-        <v>-281975</v>
+        <v>-245224</v>
       </c>
       <c r="K83" s="11">
-        <v>-245224</v>
+        <v>-428962</v>
       </c>
       <c r="L83" s="11">
-        <v>-428962</v>
+        <v>-604302</v>
       </c>
       <c r="M83" s="11">
-        <v>-604302</v>
+        <v>-701002</v>
       </c>
       <c r="N83" s="11">
-        <v>-701002</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-865144</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>19</v>
       </c>
@@ -3218,37 +3218,37 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>-545957</v>
+        <v>-491092</v>
       </c>
       <c r="F84" s="13">
-        <v>-491092</v>
+        <v>-587452</v>
       </c>
       <c r="G84" s="13">
-        <v>-587452</v>
+        <v>-560079</v>
       </c>
       <c r="H84" s="13">
-        <v>-560079</v>
+        <v>-708347</v>
       </c>
       <c r="I84" s="13">
-        <v>-708347</v>
+        <v>-615806</v>
       </c>
       <c r="J84" s="13">
-        <v>-615806</v>
+        <v>-624404</v>
       </c>
       <c r="K84" s="13">
-        <v>-624404</v>
+        <v>-803290</v>
       </c>
       <c r="L84" s="13">
-        <v>-803290</v>
+        <v>-1076184</v>
       </c>
       <c r="M84" s="13">
-        <v>-1076184</v>
+        <v>-1307384</v>
       </c>
       <c r="N84" s="13">
-        <v>-1307384</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1128377</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>21</v>
       </c>
@@ -3257,74 +3257,74 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>-263046</v>
+        <v>-233661</v>
       </c>
       <c r="F85" s="11">
-        <v>-233661</v>
+        <v>-606140</v>
       </c>
       <c r="G85" s="11">
-        <v>-606140</v>
+        <v>-774375</v>
       </c>
       <c r="H85" s="11">
-        <v>-774375</v>
+        <v>-750527</v>
       </c>
       <c r="I85" s="11">
-        <v>-750527</v>
+        <v>-671516</v>
       </c>
       <c r="J85" s="11">
-        <v>-671516</v>
+        <v>-1920311</v>
       </c>
       <c r="K85" s="11">
-        <v>-1920311</v>
+        <v>-1671171</v>
       </c>
       <c r="L85" s="11">
-        <v>-1671171</v>
+        <v>-1730417</v>
       </c>
       <c r="M85" s="11">
-        <v>-1730417</v>
+        <v>-1591165</v>
       </c>
       <c r="N85" s="11">
-        <v>-1591165</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1181063</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15">
-        <v>-1020219</v>
+        <v>-943856</v>
       </c>
       <c r="F86" s="15">
-        <v>-943856</v>
+        <v>-1398353</v>
       </c>
       <c r="G86" s="15">
-        <v>-1398353</v>
+        <v>-1535851</v>
       </c>
       <c r="H86" s="15">
-        <v>-1535851</v>
+        <v>-1688308</v>
       </c>
       <c r="I86" s="15">
-        <v>-1688308</v>
+        <v>-1569297</v>
       </c>
       <c r="J86" s="15">
-        <v>-1569297</v>
+        <v>-2789939</v>
       </c>
       <c r="K86" s="15">
-        <v>-2789939</v>
+        <v>-2903423</v>
       </c>
       <c r="L86" s="15">
-        <v>-2903423</v>
+        <v>-3410903</v>
       </c>
       <c r="M86" s="15">
-        <v>-3410903</v>
+        <v>-3599551</v>
       </c>
       <c r="N86" s="15">
-        <v>-3599551</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3174584</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>52</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>16</v>
       </c>
@@ -3350,37 +3350,37 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>-1619</v>
+        <v>-29</v>
       </c>
       <c r="F88" s="11">
-        <v>-29</v>
+        <v>-100</v>
       </c>
       <c r="G88" s="11">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H88" s="11">
-        <v>0</v>
+        <v>-2458</v>
       </c>
       <c r="I88" s="11">
-        <v>-2458</v>
+        <v>-4573</v>
       </c>
       <c r="J88" s="11">
-        <v>-4573</v>
+        <v>-301</v>
       </c>
       <c r="K88" s="11">
-        <v>-301</v>
+        <v>0</v>
       </c>
       <c r="L88" s="11">
-        <v>0</v>
+        <v>-8657</v>
       </c>
       <c r="M88" s="11">
-        <v>-8657</v>
+        <v>-600</v>
       </c>
       <c r="N88" s="11">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-808</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>19</v>
       </c>
@@ -3389,13 +3389,13 @@
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>-2499</v>
+        <v>-379</v>
       </c>
       <c r="F89" s="13">
-        <v>-379</v>
+        <v>-1028</v>
       </c>
       <c r="G89" s="13">
-        <v>-1028</v>
+        <v>0</v>
       </c>
       <c r="H89" s="13">
         <v>0</v>
@@ -3407,19 +3407,19 @@
         <v>0</v>
       </c>
       <c r="K89" s="13">
-        <v>0</v>
+        <v>-266</v>
       </c>
       <c r="L89" s="13">
-        <v>-266</v>
+        <v>-261</v>
       </c>
       <c r="M89" s="13">
-        <v>-261</v>
+        <v>-27</v>
       </c>
       <c r="N89" s="13">
-        <v>-27</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>21</v>
       </c>
@@ -3428,74 +3428,74 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>-38962</v>
+        <v>-14493</v>
       </c>
       <c r="F90" s="11">
-        <v>-14493</v>
+        <v>-4530</v>
       </c>
       <c r="G90" s="11">
-        <v>-4530</v>
+        <v>-6798</v>
       </c>
       <c r="H90" s="11">
-        <v>-6798</v>
+        <v>-47</v>
       </c>
       <c r="I90" s="11">
-        <v>-47</v>
+        <v>-95</v>
       </c>
       <c r="J90" s="11">
-        <v>-95</v>
+        <v>-105542</v>
       </c>
       <c r="K90" s="11">
-        <v>-105542</v>
+        <v>-39822</v>
       </c>
       <c r="L90" s="11">
-        <v>-39822</v>
+        <v>-26264</v>
       </c>
       <c r="M90" s="11">
-        <v>-26264</v>
+        <v>-2685</v>
       </c>
       <c r="N90" s="11">
-        <v>-2685</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-136428</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15">
-        <v>-43080</v>
+        <v>-14901</v>
       </c>
       <c r="F91" s="15">
-        <v>-14901</v>
+        <v>-5658</v>
       </c>
       <c r="G91" s="15">
-        <v>-5658</v>
+        <v>-6798</v>
       </c>
       <c r="H91" s="15">
-        <v>-6798</v>
+        <v>-2505</v>
       </c>
       <c r="I91" s="15">
-        <v>-2505</v>
+        <v>-4668</v>
       </c>
       <c r="J91" s="15">
-        <v>-4668</v>
+        <v>-105843</v>
       </c>
       <c r="K91" s="15">
-        <v>-105843</v>
+        <v>-40088</v>
       </c>
       <c r="L91" s="15">
-        <v>-40088</v>
+        <v>-35182</v>
       </c>
       <c r="M91" s="15">
-        <v>-35182</v>
+        <v>-3312</v>
       </c>
       <c r="N91" s="15">
-        <v>-3312</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-137255</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>54</v>
       </c>
@@ -3512,7 +3512,7 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>16</v>
       </c>
@@ -3529,29 +3529,29 @@
       <c r="G93" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>18</v>
+      <c r="H93" s="11">
+        <v>-52269</v>
       </c>
       <c r="I93" s="11">
-        <v>-52269</v>
+        <v>-67284</v>
       </c>
       <c r="J93" s="11">
-        <v>-67284</v>
+        <v>-51250</v>
       </c>
       <c r="K93" s="11">
-        <v>-51250</v>
+        <v>-31106</v>
       </c>
       <c r="L93" s="11">
-        <v>-31106</v>
+        <v>-35682</v>
       </c>
       <c r="M93" s="11">
-        <v>-35682</v>
+        <v>-56882</v>
       </c>
       <c r="N93" s="11">
-        <v>-56882</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-53440</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>19</v>
       </c>
@@ -3568,17 +3568,17 @@
       <c r="G94" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H94" s="13" t="s">
-        <v>18</v>
+      <c r="H94" s="13">
+        <v>-37601</v>
       </c>
       <c r="I94" s="13">
-        <v>-37601</v>
+        <v>-20817</v>
       </c>
       <c r="J94" s="13">
-        <v>-20817</v>
+        <v>-17470</v>
       </c>
       <c r="K94" s="13">
-        <v>-17470</v>
+        <v>0</v>
       </c>
       <c r="L94" s="13">
         <v>0</v>
@@ -3587,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="N94" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-32471</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>21</v>
       </c>
@@ -3607,29 +3607,29 @@
       <c r="G95" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H95" s="11" t="s">
-        <v>18</v>
+      <c r="H95" s="11">
+        <v>-6385</v>
       </c>
       <c r="I95" s="11">
-        <v>-6385</v>
+        <v>-106</v>
       </c>
       <c r="J95" s="11">
-        <v>-106</v>
+        <v>-823</v>
       </c>
       <c r="K95" s="11">
-        <v>-823</v>
+        <v>-1108</v>
       </c>
       <c r="L95" s="11">
-        <v>-1108</v>
+        <v>183</v>
       </c>
       <c r="M95" s="11">
-        <v>183</v>
+        <v>-638</v>
       </c>
       <c r="N95" s="11">
-        <v>-638</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2689</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>26</v>
       </c>
@@ -3638,17 +3638,17 @@
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
-        <v>-28703</v>
+        <v>-41810</v>
       </c>
       <c r="F96" s="13">
-        <v>-41810</v>
+        <v>-71749</v>
       </c>
       <c r="G96" s="13">
-        <v>-71749</v>
-      </c>
-      <c r="H96" s="13">
         <v>-3099</v>
       </c>
+      <c r="H96" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I96" s="13" t="s">
         <v>18</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>28</v>
       </c>
@@ -3677,17 +3677,17 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>-8388</v>
+        <v>5362</v>
       </c>
       <c r="F97" s="11">
-        <v>5362</v>
+        <v>-12</v>
       </c>
       <c r="G97" s="11">
-        <v>-12</v>
-      </c>
-      <c r="H97" s="11">
         <v>-5747</v>
       </c>
+      <c r="H97" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I97" s="11" t="s">
         <v>18</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>30</v>
       </c>
@@ -3716,17 +3716,17 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>0</v>
+        <v>-12409</v>
       </c>
       <c r="F98" s="13">
-        <v>-12409</v>
+        <v>1756</v>
       </c>
       <c r="G98" s="13">
-        <v>1756</v>
-      </c>
-      <c r="H98" s="13">
         <v>-5550</v>
       </c>
+      <c r="H98" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I98" s="13" t="s">
         <v>18</v>
       </c>
@@ -3746,44 +3746,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17">
-        <v>-37091</v>
+        <v>-48857</v>
       </c>
       <c r="F99" s="17">
-        <v>-48857</v>
+        <v>-70005</v>
       </c>
       <c r="G99" s="17">
-        <v>-70005</v>
+        <v>-14396</v>
       </c>
       <c r="H99" s="17">
-        <v>-14396</v>
+        <v>-96255</v>
       </c>
       <c r="I99" s="17">
-        <v>-96255</v>
+        <v>-88207</v>
       </c>
       <c r="J99" s="17">
-        <v>-88207</v>
+        <v>-69543</v>
       </c>
       <c r="K99" s="17">
-        <v>-69543</v>
+        <v>-32214</v>
       </c>
       <c r="L99" s="17">
-        <v>-32214</v>
+        <v>-35499</v>
       </c>
       <c r="M99" s="17">
-        <v>-35499</v>
+        <v>-57520</v>
       </c>
       <c r="N99" s="17">
-        <v>-57520</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-88600</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
         <v>32</v>
       </c>
@@ -3800,8 +3800,8 @@
       <c r="G100" s="15">
         <v>0</v>
       </c>
-      <c r="H100" s="15">
-        <v>0</v>
+      <c r="H100" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I100" s="15" t="s">
         <v>18</v>
@@ -3822,7 +3822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="16" t="s">
         <v>34</v>
       </c>
@@ -3836,11 +3836,11 @@
       <c r="F101" s="17">
         <v>0</v>
       </c>
-      <c r="G101" s="17">
-        <v>0</v>
-      </c>
-      <c r="H101" s="17" t="s">
-        <v>18</v>
+      <c r="G101" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="17">
+        <v>0</v>
       </c>
       <c r="I101" s="17">
         <v>0</v>
@@ -3861,44 +3861,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15">
-        <v>-1100390</v>
+        <v>-1007614</v>
       </c>
       <c r="F102" s="15">
-        <v>-1007614</v>
+        <v>-1474016</v>
       </c>
       <c r="G102" s="15">
-        <v>-1474016</v>
+        <v>-1557045</v>
       </c>
       <c r="H102" s="15">
-        <v>-1557045</v>
+        <v>-1787068</v>
       </c>
       <c r="I102" s="15">
-        <v>-1787068</v>
+        <v>-1662172</v>
       </c>
       <c r="J102" s="15">
-        <v>-1662172</v>
+        <v>-2965325</v>
       </c>
       <c r="K102" s="15">
-        <v>-2965325</v>
+        <v>-2975725</v>
       </c>
       <c r="L102" s="15">
-        <v>-2975725</v>
+        <v>-3481584</v>
       </c>
       <c r="M102" s="15">
-        <v>-3481584</v>
+        <v>-3660383</v>
       </c>
       <c r="N102" s="15">
-        <v>-3660383</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3400439</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3913,7 +3913,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3928,7 +3928,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3943,7 +3943,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>56</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3995,7 +3995,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>57</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>16</v>
       </c>
@@ -4021,37 +4021,37 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>407837</v>
+        <v>529027</v>
       </c>
       <c r="F109" s="11">
-        <v>529027</v>
+        <v>265387</v>
       </c>
       <c r="G109" s="11">
-        <v>265387</v>
+        <v>236773</v>
       </c>
       <c r="H109" s="11">
-        <v>236773</v>
+        <v>302248</v>
       </c>
       <c r="I109" s="11">
-        <v>302248</v>
+        <v>102922</v>
       </c>
       <c r="J109" s="11">
-        <v>102922</v>
+        <v>136147</v>
       </c>
       <c r="K109" s="11">
-        <v>136147</v>
+        <v>301869</v>
       </c>
       <c r="L109" s="11">
-        <v>301869</v>
+        <v>306705</v>
       </c>
       <c r="M109" s="11">
-        <v>306705</v>
+        <v>584319</v>
       </c>
       <c r="N109" s="11">
-        <v>584319</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>442210</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>19</v>
       </c>
@@ -4060,37 +4060,37 @@
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13">
-        <v>768778</v>
+        <v>641996</v>
       </c>
       <c r="F110" s="13">
-        <v>641996</v>
+        <v>645023</v>
       </c>
       <c r="G110" s="13">
-        <v>645023</v>
+        <v>514920</v>
       </c>
       <c r="H110" s="13">
-        <v>514920</v>
+        <v>682458</v>
       </c>
       <c r="I110" s="13">
-        <v>682458</v>
+        <v>248143</v>
       </c>
       <c r="J110" s="13">
-        <v>248143</v>
+        <v>331738</v>
       </c>
       <c r="K110" s="13">
-        <v>331738</v>
+        <v>543013</v>
       </c>
       <c r="L110" s="13">
-        <v>543013</v>
+        <v>962670</v>
       </c>
       <c r="M110" s="13">
-        <v>962670</v>
+        <v>1191938</v>
       </c>
       <c r="N110" s="13">
-        <v>1191938</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1160101</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>21</v>
       </c>
@@ -4099,74 +4099,74 @@
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
-        <v>238252</v>
+        <v>172667</v>
       </c>
       <c r="F111" s="11">
-        <v>172667</v>
+        <v>370665</v>
       </c>
       <c r="G111" s="11">
-        <v>370665</v>
+        <v>544202</v>
       </c>
       <c r="H111" s="11">
-        <v>544202</v>
+        <v>1240382</v>
       </c>
       <c r="I111" s="11">
-        <v>1240382</v>
+        <v>1078316</v>
       </c>
       <c r="J111" s="11">
-        <v>1078316</v>
+        <v>647887</v>
       </c>
       <c r="K111" s="11">
-        <v>647887</v>
+        <v>847772</v>
       </c>
       <c r="L111" s="11">
-        <v>847772</v>
+        <v>1141748</v>
       </c>
       <c r="M111" s="11">
-        <v>1141748</v>
+        <v>1117276</v>
       </c>
       <c r="N111" s="11">
-        <v>1117276</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>836488</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15">
-        <v>1414867</v>
+        <v>1343690</v>
       </c>
       <c r="F112" s="15">
-        <v>1343690</v>
+        <v>1281075</v>
       </c>
       <c r="G112" s="15">
-        <v>1281075</v>
+        <v>1295895</v>
       </c>
       <c r="H112" s="15">
-        <v>1295895</v>
+        <v>2225088</v>
       </c>
       <c r="I112" s="15">
-        <v>2225088</v>
+        <v>1429381</v>
       </c>
       <c r="J112" s="15">
-        <v>1429381</v>
+        <v>1115772</v>
       </c>
       <c r="K112" s="15">
-        <v>1115772</v>
+        <v>1692654</v>
       </c>
       <c r="L112" s="15">
-        <v>1692654</v>
+        <v>2411123</v>
       </c>
       <c r="M112" s="15">
-        <v>2411123</v>
+        <v>2893533</v>
       </c>
       <c r="N112" s="15">
-        <v>2893533</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2438799</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>59</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>16</v>
       </c>
@@ -4192,37 +4192,37 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>691</v>
+        <v>-29</v>
       </c>
       <c r="F114" s="11">
-        <v>-29</v>
+        <v>-100</v>
       </c>
       <c r="G114" s="11">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H114" s="11">
-        <v>0</v>
+        <v>1235</v>
       </c>
       <c r="I114" s="11">
-        <v>1235</v>
+        <v>1695</v>
       </c>
       <c r="J114" s="11">
-        <v>1695</v>
+        <v>262019</v>
       </c>
       <c r="K114" s="11">
-        <v>262019</v>
+        <v>0</v>
       </c>
       <c r="L114" s="11">
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="M114" s="11">
-        <v>1685</v>
+        <v>-600</v>
       </c>
       <c r="N114" s="11">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-807</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>19</v>
       </c>
@@ -4231,13 +4231,13 @@
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13">
-        <v>1748</v>
+        <v>-379</v>
       </c>
       <c r="F115" s="13">
-        <v>-379</v>
+        <v>-28</v>
       </c>
       <c r="G115" s="13">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="H115" s="13">
         <v>0</v>
@@ -4249,19 +4249,19 @@
         <v>0</v>
       </c>
       <c r="K115" s="13">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L115" s="13">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="M115" s="13">
-        <v>73</v>
+        <v>-27</v>
       </c>
       <c r="N115" s="13">
-        <v>-27</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>21</v>
       </c>
@@ -4270,74 +4270,74 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>72243</v>
+        <v>4412</v>
       </c>
       <c r="F116" s="11">
-        <v>4412</v>
+        <v>-4530</v>
       </c>
       <c r="G116" s="11">
-        <v>-4530</v>
+        <v>24643</v>
       </c>
       <c r="H116" s="11">
-        <v>24643</v>
+        <v>-47</v>
       </c>
       <c r="I116" s="11">
-        <v>-47</v>
+        <v>-95</v>
       </c>
       <c r="J116" s="11">
-        <v>-95</v>
+        <v>-127022</v>
       </c>
       <c r="K116" s="11">
-        <v>-127022</v>
+        <v>19248</v>
       </c>
       <c r="L116" s="11">
-        <v>19248</v>
+        <v>12537</v>
       </c>
       <c r="M116" s="11">
-        <v>12537</v>
+        <v>-2685</v>
       </c>
       <c r="N116" s="11">
-        <v>-2685</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>116700</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15">
-        <v>74682</v>
+        <v>4004</v>
       </c>
       <c r="F117" s="15">
-        <v>4004</v>
+        <v>-4658</v>
       </c>
       <c r="G117" s="15">
-        <v>-4658</v>
+        <v>24643</v>
       </c>
       <c r="H117" s="15">
-        <v>24643</v>
+        <v>1188</v>
       </c>
       <c r="I117" s="15">
-        <v>1188</v>
+        <v>1600</v>
       </c>
       <c r="J117" s="15">
-        <v>1600</v>
+        <v>134997</v>
       </c>
       <c r="K117" s="15">
-        <v>134997</v>
+        <v>19353</v>
       </c>
       <c r="L117" s="15">
-        <v>19353</v>
+        <v>14295</v>
       </c>
       <c r="M117" s="15">
-        <v>14295</v>
+        <v>-3312</v>
       </c>
       <c r="N117" s="15">
-        <v>-3312</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>115874</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>61</v>
       </c>
@@ -4354,7 +4354,7 @@
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>16</v>
       </c>
@@ -4371,29 +4371,29 @@
       <c r="G119" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H119" s="11" t="s">
-        <v>18</v>
+      <c r="H119" s="11">
+        <v>101201</v>
       </c>
       <c r="I119" s="11">
-        <v>101201</v>
+        <v>81071</v>
       </c>
       <c r="J119" s="11">
-        <v>81071</v>
+        <v>85277</v>
       </c>
       <c r="K119" s="11">
-        <v>85277</v>
+        <v>43202</v>
       </c>
       <c r="L119" s="11">
-        <v>43202</v>
+        <v>72616</v>
       </c>
       <c r="M119" s="11">
-        <v>72616</v>
+        <v>117055</v>
       </c>
       <c r="N119" s="11">
-        <v>117055</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>95533</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>19</v>
       </c>
@@ -4410,17 +4410,17 @@
       <c r="G120" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H120" s="13" t="s">
-        <v>18</v>
+      <c r="H120" s="13">
+        <v>32700</v>
       </c>
       <c r="I120" s="13">
-        <v>32700</v>
+        <v>23627</v>
       </c>
       <c r="J120" s="13">
-        <v>23627</v>
+        <v>19416</v>
       </c>
       <c r="K120" s="13">
-        <v>19416</v>
+        <v>0</v>
       </c>
       <c r="L120" s="13">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="N120" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>21</v>
       </c>
@@ -4449,29 +4449,29 @@
       <c r="G121" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H121" s="11" t="s">
-        <v>18</v>
+      <c r="H121" s="11">
+        <v>6125</v>
       </c>
       <c r="I121" s="11">
-        <v>6125</v>
+        <v>424</v>
       </c>
       <c r="J121" s="11">
-        <v>424</v>
+        <v>4955</v>
       </c>
       <c r="K121" s="11">
-        <v>4955</v>
+        <v>16143</v>
       </c>
       <c r="L121" s="11">
-        <v>16143</v>
+        <v>183</v>
       </c>
       <c r="M121" s="11">
-        <v>183</v>
+        <v>1065</v>
       </c>
       <c r="N121" s="11">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2087</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>26</v>
       </c>
@@ -4480,17 +4480,17 @@
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="13">
-        <v>74714</v>
+        <v>108271</v>
       </c>
       <c r="F122" s="13">
-        <v>108271</v>
+        <v>50381</v>
       </c>
       <c r="G122" s="13">
-        <v>50381</v>
-      </c>
-      <c r="H122" s="13">
         <v>4973</v>
       </c>
+      <c r="H122" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I122" s="13" t="s">
         <v>18</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>28</v>
       </c>
@@ -4519,17 +4519,17 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>-3139</v>
+        <v>-6882</v>
       </c>
       <c r="F123" s="11">
-        <v>-6882</v>
+        <v>10502</v>
       </c>
       <c r="G123" s="11">
-        <v>10502</v>
-      </c>
-      <c r="H123" s="11">
         <v>1106</v>
       </c>
+      <c r="H123" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I123" s="11" t="s">
         <v>18</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>30</v>
       </c>
@@ -4558,17 +4558,17 @@
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13">
-        <v>0</v>
+        <v>6329</v>
       </c>
       <c r="F124" s="13">
-        <v>6329</v>
+        <v>2887</v>
       </c>
       <c r="G124" s="13">
-        <v>2887</v>
-      </c>
-      <c r="H124" s="13">
         <v>4195</v>
       </c>
+      <c r="H124" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I124" s="13" t="s">
         <v>18</v>
       </c>
@@ -4588,78 +4588,78 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
       <c r="E125" s="17">
-        <v>71575</v>
+        <v>107718</v>
       </c>
       <c r="F125" s="17">
-        <v>107718</v>
+        <v>63770</v>
       </c>
       <c r="G125" s="17">
-        <v>63770</v>
+        <v>10274</v>
       </c>
       <c r="H125" s="17">
-        <v>10274</v>
+        <v>140026</v>
       </c>
       <c r="I125" s="17">
-        <v>140026</v>
+        <v>105122</v>
       </c>
       <c r="J125" s="17">
-        <v>105122</v>
+        <v>109648</v>
       </c>
       <c r="K125" s="17">
-        <v>109648</v>
+        <v>59345</v>
       </c>
       <c r="L125" s="17">
-        <v>59345</v>
+        <v>72799</v>
       </c>
       <c r="M125" s="17">
-        <v>72799</v>
+        <v>118120</v>
       </c>
       <c r="N125" s="17">
-        <v>118120</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>138110</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15">
-        <v>1561124</v>
+        <v>1455412</v>
       </c>
       <c r="F126" s="15">
-        <v>1455412</v>
+        <v>1340187</v>
       </c>
       <c r="G126" s="15">
-        <v>1340187</v>
+        <v>1330812</v>
       </c>
       <c r="H126" s="15">
-        <v>1330812</v>
+        <v>2366302</v>
       </c>
       <c r="I126" s="15">
-        <v>2366302</v>
+        <v>1536103</v>
       </c>
       <c r="J126" s="15">
-        <v>1536103</v>
+        <v>1360417</v>
       </c>
       <c r="K126" s="15">
-        <v>1360417</v>
+        <v>1771352</v>
       </c>
       <c r="L126" s="15">
-        <v>1771352</v>
+        <v>2498217</v>
       </c>
       <c r="M126" s="15">
-        <v>2498217</v>
+        <v>3008341</v>
       </c>
       <c r="N126" s="15">
-        <v>3008341</v>
+        <v>2692783</v>
       </c>
     </row>
   </sheetData>
